--- a/data/tehilim-data/35.xlsx
+++ b/data/tehilim-data/35.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="412">
   <si>
     <t>original</t>
   </si>
@@ -400,10 +400,16 @@
     <t>спасению его</t>
   </si>
   <si>
-    <t>כל-עצמותי</t>
-  </si>
-  <si>
-    <t>все кости мои</t>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>עצמותי</t>
+  </si>
+  <si>
+    <t>кости мои</t>
   </si>
   <si>
     <t>תאמרנה</t>
@@ -653,6 +659,9 @@
   </si>
   <si>
     <t>שַׁחוֹתִי</t>
+  </si>
+  <si>
+    <t>хмуро</t>
   </si>
   <si>
     <t>טו</t>
@@ -1244,7 +1253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1256,13 +1265,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1271,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1287,6 +1306,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2189,29 +2214,29 @@
       <c r="C75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -2279,22 +2304,22 @@
       <c r="C85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="5">
         <v>11.0</v>
       </c>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
@@ -2303,7 +2328,7 @@
       <c r="B88" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
@@ -2312,7 +2337,7 @@
       <c r="B89" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
@@ -2321,7 +2346,7 @@
       <c r="B90" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
@@ -2330,7 +2355,7 @@
       <c r="B91" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
@@ -2339,7 +2364,7 @@
       <c r="B92" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
@@ -2348,25 +2373,25 @@
       <c r="B93" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="5">
         <v>12.0</v>
       </c>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
@@ -2375,7 +2400,7 @@
       <c r="B96" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
@@ -2384,7 +2409,7 @@
       <c r="B97" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
@@ -2393,7 +2418,7 @@
       <c r="B98" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
@@ -2402,34 +2427,34 @@
       <c r="B99" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B101" s="5">
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="5">
         <v>13.0</v>
       </c>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="6"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
@@ -2438,7 +2463,7 @@
       <c r="B103" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
@@ -2447,7 +2472,7 @@
       <c r="B104" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
@@ -2456,7 +2481,7 @@
       <c r="B105" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="6"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
@@ -2465,7 +2490,7 @@
       <c r="B106" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
@@ -2474,25 +2499,25 @@
       <c r="B107" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="C108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
@@ -2501,7 +2526,7 @@
       <c r="B110" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
@@ -2510,7 +2535,7 @@
       <c r="B111" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C111" s="6"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
@@ -2519,25 +2544,25 @@
       <c r="B112" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="5">
         <v>14.0</v>
       </c>
-      <c r="C113" s="6"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="6"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
@@ -2546,7 +2571,7 @@
       <c r="B115" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
@@ -2555,7 +2580,7 @@
       <c r="B116" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="6"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
@@ -2564,7 +2589,7 @@
       <c r="B117" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
@@ -2573,7 +2598,7 @@
       <c r="B118" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
@@ -2582,7 +2607,7 @@
       <c r="B119" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
@@ -2591,1094 +2616,1105 @@
       <c r="B120" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="6"/>
+      <c r="B121" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" s="5">
+      <c r="A122" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" s="5">
         <v>15.0</v>
       </c>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" s="6"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="C124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C125" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="C125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="C126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C128" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C129" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C132" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" s="5">
+      <c r="A134" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" s="5">
         <v>16.0</v>
       </c>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="6"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C137" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B141" s="5">
+      <c r="A141" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B142" s="5">
         <v>17.0</v>
       </c>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C142" s="6"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C145" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C147" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C148" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B150" s="5">
+      <c r="A150" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="5">
         <v>18.0</v>
       </c>
-      <c r="C150" s="6"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C152" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C153" s="6"/>
+        <v>269</v>
+      </c>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C154" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C155" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C156" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B157" s="5">
+      <c r="A157" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="5">
         <v>19.0</v>
       </c>
-      <c r="C157" s="6"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C158" s="6"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C159" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C160" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C161" s="6"/>
+        <v>283</v>
+      </c>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C162" s="6"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C163" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C164" s="6"/>
+        <v>287</v>
+      </c>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C165" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C166" s="6"/>
+        <v>291</v>
+      </c>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B167" s="7">
+      <c r="A167" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168" s="9">
         <v>20.0</v>
       </c>
-      <c r="C167" s="6"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C168" s="6"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B169" s="6" t="s">
+      <c r="A169" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C169" s="6"/>
+      <c r="B169" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B170" s="6" t="s">
+      <c r="A170" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C170" s="6"/>
+      <c r="B170" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="A171" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C171" s="6"/>
+      <c r="B171" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B172" s="6" t="s">
+      <c r="A172" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C172" s="6"/>
+      <c r="B172" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B178" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C173" s="6"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C174" s="6"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C175" s="6"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C176" s="6"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B177" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="C177" s="6"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C178" s="6"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C179" s="6"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C180" s="6"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="7" t="s">
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B193" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B199" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B214" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B224" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B225" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C181" s="6"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="6"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C183" s="6"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C184" s="6"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C185" s="6"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B186" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="C186" s="6"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C187" s="6"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="6"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C189" s="6"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C190" s="6"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C191" s="6"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B192" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="C192" s="6"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C193" s="6"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C194" s="6"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C195" s="6"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C196" s="6"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B198" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="C198" s="6"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C199" s="6"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C200" s="6"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="6"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C202" s="6"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C203" s="6"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C204" s="6"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C205" s="6"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B206" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="C206" s="6"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C207" s="6"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C208" s="6"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C209" s="6"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C210" s="6"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C211" s="6"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C212" s="6"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B213" s="7">
-        <v>26.0</v>
-      </c>
-      <c r="C213" s="6"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C214" s="6"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C216" s="6"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C218" s="6"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C219" s="6"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C220" s="6"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C221" s="6"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C222" s="6"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B224" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="C224" s="6"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C225" s="6"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C226" s="6"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C227" s="6"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C228" s="6"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C229" s="6"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C230" s="6"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C231" s="6"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="6"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C233" s="6"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C234" s="6"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C235" s="6"/>
+      <c r="B235" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B236" s="7">
+      <c r="A236" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B237" s="9">
         <v>28.0</v>
       </c>
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C237" s="6"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="7" t="s">
-        <v>401</v>
+      <c r="A238" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C238" s="6"/>
+        <v>403</v>
+      </c>
+      <c r="C238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C239" s="6"/>
+      <c r="B239" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B240" s="6" t="s">
+      <c r="A240" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C240" s="6"/>
+      <c r="B240" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="7" t="s">
-        <v>407</v>
+      <c r="A241" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C241" s="6"/>
+        <v>409</v>
+      </c>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C242" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
